--- a/FishLandings/household groups/stats_means.xlsx
+++ b/FishLandings/household groups/stats_means.xlsx
@@ -973,19 +973,19 @@
         </is>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>0.7925431673517301</v>
+        <v>0.5145744069746477</v>
       </c>
       <c r="E23">
-        <v>1.227045229031703</v>
+        <v>0.3493109811986957</v>
       </c>
       <c r="F23">
-        <v>0.2892173340903059</v>
+        <v>0.08472035715708043</v>
       </c>
       <c r="G23">
-        <v>0.6101952368431501</v>
+        <v>0.1795991340892121</v>
       </c>
     </row>
     <row r="24">

--- a/FishLandings/household groups/stats_means.xlsx
+++ b/FishLandings/household groups/stats_means.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,19 +406,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>3.81986106537417</v>
+        <v>3.800047691392696</v>
       </c>
       <c r="E2">
-        <v>2.586039266456233</v>
+        <v>2.459014665232131</v>
       </c>
       <c r="F2">
-        <v>0.4140976934050983</v>
+        <v>0.3257044490597423</v>
       </c>
       <c r="G2">
-        <v>0.8382969538186891</v>
+        <v>0.6524644146663884</v>
       </c>
     </row>
     <row r="3">
@@ -433,19 +433,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>0.447415760511841</v>
+        <v>0.4657328290716877</v>
       </c>
       <c r="E3">
-        <v>0.2150763429713992</v>
+        <v>0.2076688709623418</v>
       </c>
       <c r="F3">
-        <v>0.1075381714856996</v>
+        <v>0.07849145537370272</v>
       </c>
       <c r="G3">
-        <v>0.3422344565216304</v>
+        <v>0.1920616723675296</v>
       </c>
     </row>
     <row r="4">
@@ -460,19 +460,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>1762.94051932889</v>
+        <v>1731.539141594671</v>
       </c>
       <c r="E4">
-        <v>1129.625876877023</v>
+        <v>1052.573242733655</v>
       </c>
       <c r="F4">
-        <v>180.8849061547703</v>
+        <v>139.4167318181605</v>
       </c>
       <c r="G4">
-        <v>366.1823483594814</v>
+        <v>279.2852740668328</v>
       </c>
     </row>
     <row r="5">
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>32.86324786324786</v>
+        <v>32.54385964912281</v>
       </c>
       <c r="E5">
-        <v>32.72235835850176</v>
+        <v>31.15199753964597</v>
       </c>
       <c r="F5">
-        <v>5.239770832095349</v>
+        <v>4.126182872847172</v>
       </c>
       <c r="G5">
-        <v>10.60736149272999</v>
+        <v>8.265737544300148</v>
       </c>
     </row>
     <row r="6">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>15.52991452991453</v>
+        <v>16.72514619883041</v>
       </c>
       <c r="E6">
-        <v>8.081716405008416</v>
+        <v>8.262586072125117</v>
       </c>
       <c r="F6">
-        <v>1.294110327510283</v>
+        <v>1.094406260556468</v>
       </c>
       <c r="G6">
-        <v>2.619789394470025</v>
+        <v>2.192359184108752</v>
       </c>
     </row>
     <row r="7">
@@ -541,19 +541,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>2.659146573096153</v>
+        <v>1.289340883086268</v>
       </c>
       <c r="E7">
-        <v>6.287861814529036</v>
+        <v>5.894670141424914</v>
       </c>
       <c r="F7">
-        <v>1.00686370374204</v>
+        <v>0.7807681336542477</v>
       </c>
       <c r="G7">
-        <v>2.038289005710175</v>
+        <v>1.564066517315047</v>
       </c>
     </row>
     <row r="8">
@@ -568,19 +568,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>60.51282051282051</v>
+        <v>60.14619883040935</v>
       </c>
       <c r="E8">
-        <v>34.77612999276881</v>
+        <v>33.29950769119017</v>
       </c>
       <c r="F8">
-        <v>5.568637492227787</v>
+        <v>4.410627541131768</v>
       </c>
       <c r="G8">
-        <v>11.27311724020732</v>
+        <v>8.835548686067025</v>
       </c>
     </row>
     <row r="9">
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>0.6410256410256411</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="E9">
-        <v>4.003203845127178</v>
+        <v>4.640928845756897</v>
       </c>
       <c r="F9">
-        <v>0.641025641025641</v>
+        <v>0.6147060423041536</v>
       </c>
       <c r="G9">
-        <v>1.297688566610237</v>
+        <v>1.231404174065503</v>
       </c>
     </row>
     <row r="10">
@@ -622,19 +622,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>30.73377161304882</v>
+        <v>29.20577130347028</v>
       </c>
       <c r="E10">
-        <v>23.68359261388765</v>
+        <v>21.8725510119907</v>
       </c>
       <c r="F10">
-        <v>3.792409960733627</v>
+        <v>2.897090154693745</v>
       </c>
       <c r="G10">
-        <v>7.677332591670776</v>
+        <v>5.803568964055792</v>
       </c>
     </row>
     <row r="11">
@@ -649,19 +649,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>24.21550217107311</v>
+        <v>23.0114098826413</v>
       </c>
       <c r="E11">
-        <v>7.378296118301681</v>
+        <v>6.87121865021674</v>
       </c>
       <c r="F11">
-        <v>1.181472935650889</v>
+        <v>0.9101151434680868</v>
       </c>
       <c r="G11">
-        <v>2.391766915751601</v>
+        <v>1.823179714235345</v>
       </c>
     </row>
     <row r="12">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D12">
-        <v>8.15521326629548</v>
+        <v>7.541434033948799</v>
       </c>
       <c r="E12">
-        <v>7.253684089832208</v>
+        <v>6.785764536750551</v>
       </c>
       <c r="F12">
-        <v>1.161519041590165</v>
+        <v>0.8987964696350592</v>
       </c>
       <c r="G12">
-        <v>2.351372369067755</v>
+        <v>1.800505685929666</v>
       </c>
     </row>
     <row r="13">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>5.982905982905983</v>
+        <v>6.432748538011696</v>
       </c>
       <c r="E13">
-        <v>22.77758577099987</v>
+        <v>23.09280490847304</v>
       </c>
       <c r="F13">
-        <v>3.647332757647231</v>
+        <v>3.0587167316663</v>
       </c>
       <c r="G13">
-        <v>7.383639148426004</v>
+        <v>6.127345904295214</v>
       </c>
     </row>
     <row r="14">
@@ -726,23 +726,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planktivorous (%)</t>
+          <t>Percent of catch = mature</t>
         </is>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>34.66503969687682</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4.591496673745757</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>9.197873097302065</v>
       </c>
     </row>
     <row r="15">
@@ -753,23 +753,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Protein (g)</t>
+          <t>Planktivorous (%)</t>
         </is>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>642.2858618830843</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>458.0006948979085</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>73.33880571544907</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>148.4666502786289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -780,23 +780,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Selenium (ug)</t>
+          <t>Protein (g)</t>
         </is>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>1075.61414511012</v>
+        <v>617.9671164807414</v>
       </c>
       <c r="E16">
-        <v>742.217984408955</v>
+        <v>425.9010656549472</v>
       </c>
       <c r="F16">
-        <v>118.8499955643389</v>
+        <v>56.41197423684612</v>
       </c>
       <c r="G16">
-        <v>240.5992374014111</v>
+        <v>113.0067638218473</v>
       </c>
     </row>
     <row r="17">
@@ -807,23 +807,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Species Richness</t>
+          <t>Selenium (ug)</t>
         </is>
       </c>
       <c r="C17">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>2.128205128205128</v>
+        <v>1053.570594945267</v>
       </c>
       <c r="E17">
-        <v>1.004712244205882</v>
+        <v>706.1776909037322</v>
       </c>
       <c r="F17">
-        <v>0.1608827167700537</v>
+        <v>93.53552014394704</v>
       </c>
       <c r="G17">
-        <v>0.3256900329035991</v>
+        <v>187.3741626109701</v>
       </c>
     </row>
     <row r="18">
@@ -834,23 +834,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Trophic Level</t>
+          <t>Species Richness</t>
         </is>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>2.561528466097053</v>
+        <v>2.298245614035088</v>
       </c>
       <c r="E18">
-        <v>0.6080525096128232</v>
+        <v>1.017084634080274</v>
       </c>
       <c r="F18">
-        <v>0.09736632578085137</v>
+        <v>0.1347161507712983</v>
       </c>
       <c r="G18">
-        <v>0.197107821672307</v>
+        <v>0.269868878711514</v>
       </c>
     </row>
     <row r="19">
@@ -861,23 +861,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Value (KES)</t>
+          <t>Trophic Level</t>
         </is>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D19">
-        <v>688.5745705607274</v>
+        <v>2.578334521799004</v>
       </c>
       <c r="E19">
-        <v>527.8021201861769</v>
+        <v>0.5889685197280762</v>
       </c>
       <c r="F19">
-        <v>84.51597907982323</v>
+        <v>0.07801078616725385</v>
       </c>
       <c r="G19">
-        <v>171.0936548065002</v>
+        <v>0.1562743833595772</v>
       </c>
     </row>
     <row r="20">
@@ -888,23 +888,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VitaminA (ug)</t>
+          <t>Value (KES)</t>
         </is>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>1649.734873685093</v>
+        <v>669.4710944579944</v>
       </c>
       <c r="E20">
-        <v>1777.009504878768</v>
+        <v>503.124516235147</v>
       </c>
       <c r="F20">
-        <v>284.5492513103291</v>
+        <v>66.64047013861492</v>
       </c>
       <c r="G20">
-        <v>576.0398436981505</v>
+        <v>133.4969033048391</v>
       </c>
     </row>
     <row r="21">
@@ -915,50 +915,50 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Zinc (ug)</t>
+          <t>VitaminA (ug)</t>
         </is>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>60.55790735404162</v>
+        <v>1607.040658814421</v>
       </c>
       <c r="E21">
-        <v>44.14036323945763</v>
+        <v>1835.489903579487</v>
       </c>
       <c r="F21">
-        <v>7.068114873820286</v>
+        <v>243.1165768357228</v>
       </c>
       <c r="G21">
-        <v>14.30865050042117</v>
+        <v>487.0210261442273</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>Control</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Biomass (kg)</t>
+          <t>Zinc (ug)</t>
         </is>
       </c>
       <c r="C22">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>2.53386116790094</v>
+        <v>57.92772763590121</v>
       </c>
       <c r="E22">
-        <v>3.452382831153333</v>
+        <v>40.65561775769883</v>
       </c>
       <c r="F22">
-        <v>0.320545698673833</v>
+        <v>5.384968121654028</v>
       </c>
       <c r="G22">
-        <v>0.6349393372015498</v>
+        <v>10.78738741099509</v>
       </c>
     </row>
     <row r="23">
@@ -969,23 +969,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Biomass Taken Home (kg)</t>
+          <t>Biomass (kg)</t>
         </is>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D23">
-        <v>0.5145744069746477</v>
+        <v>2.360726660783913</v>
       </c>
       <c r="E23">
-        <v>0.3493109811986957</v>
+        <v>3.020961773437363</v>
       </c>
       <c r="F23">
-        <v>0.08472035715708043</v>
+        <v>0.2373491728558775</v>
       </c>
       <c r="G23">
-        <v>0.1795991340892121</v>
+        <v>0.4687190671263797</v>
       </c>
     </row>
     <row r="24">
@@ -996,23 +996,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Calcium (mg)</t>
+          <t>Biomass Taken Home (kg)</t>
         </is>
       </c>
       <c r="C24">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>1195.00683632559</v>
+        <v>0.5513129040184291</v>
       </c>
       <c r="E24">
-        <v>1614.305504251496</v>
+        <v>0.3220843800135546</v>
       </c>
       <c r="F24">
-        <v>149.8845032665289</v>
+        <v>0.06574519876282345</v>
       </c>
       <c r="G24">
-        <v>296.892354364954</v>
+        <v>0.1360043057692277</v>
       </c>
     </row>
     <row r="25">
@@ -1023,23 +1023,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carnivorous (%)</t>
+          <t>Calcium (mg)</t>
         </is>
       </c>
       <c r="C25">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D25">
-        <v>29.10098522167488</v>
+        <v>1122.55365579528</v>
       </c>
       <c r="E25">
-        <v>31.10144209662779</v>
+        <v>1404.840533587115</v>
       </c>
       <c r="F25">
-        <v>2.887696403963647</v>
+        <v>110.3746964205752</v>
       </c>
       <c r="G25">
-        <v>5.719970813389834</v>
+        <v>217.9688436159985</v>
       </c>
     </row>
     <row r="26">
@@ -1050,23 +1050,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CPUE</t>
+          <t>Carnivorous (%)</t>
         </is>
       </c>
       <c r="C26">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D26">
-        <v>10.43965517241379</v>
+        <v>29.41211052322163</v>
       </c>
       <c r="E26">
-        <v>7.684302229195907</v>
+        <v>28.01143478821311</v>
       </c>
       <c r="F26">
-        <v>0.7134695505526037</v>
+        <v>2.200786165501139</v>
       </c>
       <c r="G26">
-        <v>1.413245866082614</v>
+        <v>4.346130327847029</v>
       </c>
     </row>
     <row r="27">
@@ -1077,23 +1077,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Distance from Lmat (cm)</t>
+          <t>CPUE</t>
         </is>
       </c>
       <c r="C27">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D27">
-        <v>0.8027124373669947</v>
+        <v>10.96296296296296</v>
       </c>
       <c r="E27">
-        <v>5.962288154161723</v>
+        <v>7.497319511797119</v>
       </c>
       <c r="F27">
-        <v>0.5535845575480457</v>
+        <v>0.5890450519459954</v>
       </c>
       <c r="G27">
-        <v>1.09654446622984</v>
+        <v>1.163250934989301</v>
       </c>
     </row>
     <row r="28">
@@ -1104,23 +1104,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Herbivorous Detritivorous (%)</t>
+          <t>Distance from Lmat (cm)</t>
         </is>
       </c>
       <c r="C28">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D28">
-        <v>52.41858237547893</v>
+        <v>0.02798263718428259</v>
       </c>
       <c r="E28">
-        <v>35.37845085545433</v>
+        <v>5.290939105000811</v>
       </c>
       <c r="F28">
-        <v>3.284806697891901</v>
+        <v>0.4156954355545729</v>
       </c>
       <c r="G28">
-        <v>6.506569878252909</v>
+        <v>0.8209187098374525</v>
       </c>
     </row>
     <row r="29">
@@ -1131,23 +1131,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Herbivorous Macroalgal (%)</t>
+          <t>Herbivorous Detritivorous (%)</t>
         </is>
       </c>
       <c r="C29">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D29">
-        <v>5.373563218390805</v>
+        <v>51.46776406035665</v>
       </c>
       <c r="E29">
-        <v>17.32062829646703</v>
+        <v>32.24471678164319</v>
       </c>
       <c r="F29">
-        <v>1.60817996447573</v>
+        <v>2.533384210415508</v>
       </c>
       <c r="G29">
-        <v>3.185495001085743</v>
+        <v>5.002947638244747</v>
       </c>
     </row>
     <row r="30">
@@ -1158,23 +1158,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Iron (mg)</t>
+          <t>Herbivorous Macroalgal (%)</t>
         </is>
       </c>
       <c r="C30">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D30">
-        <v>20.73291243254585</v>
+        <v>4.619341563786008</v>
       </c>
       <c r="E30">
-        <v>27.77164798173055</v>
+        <v>15.54538169493885</v>
       </c>
       <c r="F30">
-        <v>2.578532781850747</v>
+        <v>1.221360534736054</v>
       </c>
       <c r="G30">
-        <v>5.107577179273602</v>
+        <v>2.411952666943044</v>
       </c>
     </row>
     <row r="31">
@@ -1185,23 +1185,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Length (cm)</t>
+          <t>Iron (mg)</t>
         </is>
       </c>
       <c r="C31">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D31">
-        <v>21.57149253088021</v>
+        <v>19.3487119421728</v>
       </c>
       <c r="E31">
-        <v>7.922046705295242</v>
+        <v>24.70804024692814</v>
       </c>
       <c r="F31">
-        <v>0.7355435709970998</v>
+        <v>1.94124697871478</v>
       </c>
       <c r="G31">
-        <v>1.456970252241554</v>
+        <v>3.83359024165465</v>
       </c>
     </row>
     <row r="32">
@@ -1212,23 +1212,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Omega3 (g)</t>
+          <t>Length (cm)</t>
         </is>
       </c>
       <c r="C32">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D32">
-        <v>5.07908320782016</v>
+        <v>21.03758961446211</v>
       </c>
       <c r="E32">
-        <v>7.713824288368586</v>
+        <v>7.119585526447532</v>
       </c>
       <c r="F32">
-        <v>0.7162106049334805</v>
+        <v>0.5593674672209606</v>
       </c>
       <c r="G32">
-        <v>1.418675367270831</v>
+        <v>1.104643400530654</v>
       </c>
     </row>
     <row r="33">
@@ -1239,23 +1239,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Omnivorous (%)</t>
+          <t>Omega3 (g)</t>
         </is>
       </c>
       <c r="C33">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D33">
-        <v>11.16242474001095</v>
+        <v>4.627310696432396</v>
       </c>
       <c r="E33">
-        <v>23.52615653781688</v>
+        <v>6.883616807861825</v>
       </c>
       <c r="F33">
-        <v>2.184348797148083</v>
+        <v>0.5408280137698659</v>
       </c>
       <c r="G33">
-        <v>4.326774569792176</v>
+        <v>1.068031537838776</v>
       </c>
     </row>
     <row r="34">
@@ -1266,23 +1266,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planktivorous (%)</t>
+          <t>Omnivorous (%)</t>
         </is>
       </c>
       <c r="C34">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D34">
-        <v>1.944444444444444</v>
+        <v>12.14824612972761</v>
       </c>
       <c r="E34">
-        <v>8.187123152075237</v>
+        <v>23.53831059159452</v>
       </c>
       <c r="F34">
-        <v>0.760155301210891</v>
+        <v>1.849344337443513</v>
       </c>
       <c r="G34">
-        <v>1.505721353048647</v>
+        <v>3.652100162018791</v>
       </c>
     </row>
     <row r="35">
@@ -1293,23 +1293,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Protein (g)</t>
+          <t>Percent of catch = mature</t>
         </is>
       </c>
       <c r="C35">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D35">
-        <v>468.8803595131669</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="E35">
-        <v>655.8886307950066</v>
+        <v>31.31340516536933</v>
       </c>
       <c r="F35">
-        <v>60.89773055098114</v>
+        <v>2.460213459386058</v>
       </c>
       <c r="G35">
-        <v>120.6266839114974</v>
+        <v>4.858449447032234</v>
       </c>
     </row>
     <row r="36">
@@ -1320,23 +1320,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Selenium (ug)</t>
+          <t>Planktivorous (%)</t>
         </is>
       </c>
       <c r="C36">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D36">
-        <v>735.277089864454</v>
+        <v>2.352537722908093</v>
       </c>
       <c r="E36">
-        <v>1090.250733030782</v>
+        <v>8.810372520161076</v>
       </c>
       <c r="F36">
-        <v>101.2272392839649</v>
+        <v>0.692208239309501</v>
       </c>
       <c r="G36">
-        <v>200.5116789388075</v>
+        <v>1.366978432165658</v>
       </c>
     </row>
     <row r="37">
@@ -1347,23 +1347,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Species Richness</t>
+          <t>Protein (g)</t>
         </is>
       </c>
       <c r="C37">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D37">
-        <v>2.336206896551724</v>
+        <v>435.8458448747114</v>
       </c>
       <c r="E37">
-        <v>1.509068042475749</v>
+        <v>573.9064929898165</v>
       </c>
       <c r="F37">
-        <v>0.140113450239858</v>
+        <v>45.090352551121</v>
       </c>
       <c r="G37">
-        <v>0.277537778845198</v>
+        <v>89.04479307789443</v>
       </c>
     </row>
     <row r="38">
@@ -1374,23 +1374,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Trophic Level</t>
+          <t>Selenium (ug)</t>
         </is>
       </c>
       <c r="C38">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D38">
-        <v>2.592707400715843</v>
+        <v>692.974587156388</v>
       </c>
       <c r="E38">
-        <v>0.5471008028821952</v>
+        <v>945.9162346117438</v>
       </c>
       <c r="F38">
-        <v>0.05079703430407292</v>
+        <v>74.3181982142677</v>
       </c>
       <c r="G38">
-        <v>0.1006191486152216</v>
+        <v>146.7641791979488</v>
       </c>
     </row>
     <row r="39">
@@ -1401,23 +1401,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Value (KES)</t>
+          <t>Species Richness</t>
         </is>
       </c>
       <c r="C39">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D39">
-        <v>410.0351026777212</v>
+        <v>2.635802469135803</v>
       </c>
       <c r="E39">
-        <v>624.6390854871045</v>
+        <v>1.637131914305804</v>
       </c>
       <c r="F39">
-        <v>57.99628310906614</v>
+        <v>0.1286252309225053</v>
       </c>
       <c r="G39">
-        <v>114.8794749384355</v>
+        <v>0.2540101468292052</v>
       </c>
     </row>
     <row r="40">
@@ -1428,23 +1428,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VitaminA (ug)</t>
+          <t>Trophic Level</t>
         </is>
       </c>
       <c r="C40">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D40">
-        <v>1017.715482116955</v>
+        <v>2.588170819192633</v>
       </c>
       <c r="E40">
-        <v>1474.818603196777</v>
+        <v>0.4898581286106674</v>
       </c>
       <c r="F40">
-        <v>136.9334696352164</v>
+        <v>0.03848688939555053</v>
       </c>
       <c r="G40">
-        <v>271.2388492829598</v>
+        <v>0.0760042206046891</v>
       </c>
     </row>
     <row r="41">
@@ -1455,77 +1455,77 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Zinc (ug)</t>
+          <t>Value (KES)</t>
         </is>
       </c>
       <c r="C41">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D41">
-        <v>39.91404339297677</v>
+        <v>372.3881334229517</v>
       </c>
       <c r="E41">
-        <v>50.51568515966026</v>
+        <v>546.7326082060796</v>
       </c>
       <c r="F41">
-        <v>4.690263619484296</v>
+        <v>42.95537052870297</v>
       </c>
       <c r="G41">
-        <v>9.290509547239811</v>
+        <v>84.8286133042787</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SM + Traps</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Biomass (kg)</t>
+          <t>VitaminA (ug)</t>
         </is>
       </c>
       <c r="C42">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="D42">
-        <v>4.26440902099942</v>
+        <v>994.7774092762271</v>
       </c>
       <c r="E42">
-        <v>3.157886917969404</v>
+        <v>1360.49204084632</v>
       </c>
       <c r="F42">
-        <v>0.3747722272896406</v>
+        <v>106.8903497591954</v>
       </c>
       <c r="G42">
-        <v>0.7474596385676053</v>
+        <v>211.0879276346374</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SM + Traps</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Biomass Taken Home (kg)</t>
+          <t>Zinc (ug)</t>
         </is>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="D43">
-        <v>1.438602542011752</v>
+        <v>37.68253965144423</v>
       </c>
       <c r="E43">
-        <v>0.707232881862319</v>
+        <v>44.14548041473012</v>
       </c>
       <c r="F43">
-        <v>0.1313298491673543</v>
+        <v>3.468396506665955</v>
       </c>
       <c r="G43">
-        <v>0.2690170009653008</v>
+        <v>6.849417486767546</v>
       </c>
     </row>
     <row r="44">
@@ -1536,23 +1536,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Calcium (mg)</t>
+          <t>Biomass (kg)</t>
         </is>
       </c>
       <c r="C44">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D44">
-        <v>1812.428254674726</v>
+        <v>4.243524825923762</v>
       </c>
       <c r="E44">
-        <v>1319.891386286242</v>
+        <v>3.139931593033626</v>
       </c>
       <c r="F44">
-        <v>156.642288805257</v>
+        <v>0.2915353295105942</v>
       </c>
       <c r="G44">
-        <v>312.4131940659847</v>
+        <v>0.5774753791927982</v>
       </c>
     </row>
     <row r="45">
@@ -1563,23 +1563,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Carnivorous (%)</t>
+          <t>Biomass Taken Home (kg)</t>
         </is>
       </c>
       <c r="C45">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>15.4626046879568</v>
+        <v>1.411335399276466</v>
       </c>
       <c r="E45">
-        <v>18.18468749248531</v>
+        <v>0.7020741122699943</v>
       </c>
       <c r="F45">
-        <v>2.158125357606874</v>
+        <v>0.09554018537105313</v>
       </c>
       <c r="G45">
-        <v>4.304245305065613</v>
+        <v>0.1916293441999166</v>
       </c>
     </row>
     <row r="46">
@@ -1590,23 +1590,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CPUE</t>
+          <t>Calcium (mg)</t>
         </is>
       </c>
       <c r="C46">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D46">
-        <v>15.47183098591549</v>
+        <v>1813.700724092395</v>
       </c>
       <c r="E46">
-        <v>10.2946659757361</v>
+        <v>1324.904889915155</v>
       </c>
       <c r="F46">
-        <v>1.221752075723593</v>
+        <v>123.0143307926122</v>
       </c>
       <c r="G46">
-        <v>2.436707681206614</v>
+        <v>243.6677140978572</v>
       </c>
     </row>
     <row r="47">
@@ -1617,23 +1617,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Distance from Lmat (cm)</t>
+          <t>Carnivorous (%)</t>
         </is>
       </c>
       <c r="C47">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D47">
-        <v>3.272684639357442</v>
+        <v>15.32614416235106</v>
       </c>
       <c r="E47">
-        <v>4.262454029584707</v>
+        <v>18.0869789173944</v>
       </c>
       <c r="F47">
-        <v>0.505860226120561</v>
+        <v>1.67933383333338</v>
       </c>
       <c r="G47">
-        <v>1.008906408343811</v>
+        <v>3.326437121097695</v>
       </c>
     </row>
     <row r="48">
@@ -1644,23 +1644,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Herbivorous Detritivorous (%)</t>
+          <t>CPUE</t>
         </is>
       </c>
       <c r="C48">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D48">
-        <v>72.67915183408142</v>
+        <v>16.63793103448276</v>
       </c>
       <c r="E48">
-        <v>24.07693339319469</v>
+        <v>10.67293805363133</v>
       </c>
       <c r="F48">
-        <v>2.857406293659856</v>
+        <v>0.9909574206058974</v>
       </c>
       <c r="G48">
-        <v>5.698917155483772</v>
+        <v>1.96289593164904</v>
       </c>
     </row>
     <row r="49">
@@ -1671,23 +1671,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Herbivorous Macroalgal (%)</t>
+          <t>Distance from Lmat (cm)</t>
         </is>
       </c>
       <c r="C49">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2.608710504601353</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3.756628290012913</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.348794180359714</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.6908941427496786</v>
       </c>
     </row>
     <row r="50">
@@ -1698,23 +1698,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Iron (mg)</t>
+          <t>Herbivorous Detritivorous (%)</t>
         </is>
       </c>
       <c r="C50">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D50">
-        <v>37.16285098036012</v>
+        <v>72.05633447012758</v>
       </c>
       <c r="E50">
-        <v>26.66069555970455</v>
+        <v>23.96620371293248</v>
       </c>
       <c r="F50">
-        <v>3.164042448494766</v>
+        <v>2.225206151646557</v>
       </c>
       <c r="G50">
-        <v>6.310483682497334</v>
+        <v>4.407705125692309</v>
       </c>
     </row>
     <row r="51">
@@ -1725,23 +1725,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Length (cm)</t>
+          <t>Herbivorous Macroalgal (%)</t>
         </is>
       </c>
       <c r="C51">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D51">
-        <v>27.03648127617942</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>4.553386938601863</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.5403876101392152</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1.07776910440299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1752,23 +1752,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Omega3 (g)</t>
+          <t>Iron (mg)</t>
         </is>
       </c>
       <c r="C52">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D52">
-        <v>10.01901791274749</v>
+        <v>37.00563242409018</v>
       </c>
       <c r="E52">
-        <v>7.745578461584078</v>
+        <v>26.59535783285494</v>
       </c>
       <c r="F52">
-        <v>0.9192310450309347</v>
+        <v>2.469316983355852</v>
       </c>
       <c r="G52">
-        <v>1.833348510501907</v>
+        <v>4.891241702007228</v>
       </c>
     </row>
     <row r="53">
@@ -1779,23 +1779,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Omnivorous (%)</t>
+          <t>Length (cm)</t>
         </is>
       </c>
       <c r="C53">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D53">
-        <v>10.71806909835079</v>
+        <v>26.17138569926788</v>
       </c>
       <c r="E53">
-        <v>17.47747763799126</v>
+        <v>4.110773854854039</v>
       </c>
       <c r="F53">
-        <v>2.074194989226126</v>
+        <v>0.381675770573252</v>
       </c>
       <c r="G53">
-        <v>4.136851463562421</v>
+        <v>0.7560262446081432</v>
       </c>
     </row>
     <row r="54">
@@ -1806,23 +1806,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planktivorous (%)</t>
+          <t>Omega3 (g)</t>
         </is>
       </c>
       <c r="C54">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D54">
-        <v>1.140174379610999</v>
+        <v>9.857621639656053</v>
       </c>
       <c r="E54">
-        <v>5.774332396965119</v>
+        <v>7.731944683821003</v>
       </c>
       <c r="F54">
-        <v>0.6852871777032751</v>
+        <v>0.7178930414141997</v>
       </c>
       <c r="G54">
-        <v>1.366762179432347</v>
+        <v>1.422007950139268</v>
       </c>
     </row>
     <row r="55">
@@ -1833,23 +1833,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Protein (g)</t>
+          <t>Omnivorous (%)</t>
         </is>
       </c>
       <c r="C55">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D55">
-        <v>781.0129051957277</v>
+        <v>11.79650330512399</v>
       </c>
       <c r="E55">
-        <v>581.1968136737165</v>
+        <v>18.21616994290571</v>
       </c>
       <c r="F55">
-        <v>68.97537182686773</v>
+        <v>1.691328918919262</v>
       </c>
       <c r="G55">
-        <v>137.5670413697217</v>
+        <v>3.350197077082397</v>
       </c>
     </row>
     <row r="56">
@@ -1860,23 +1860,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Selenium (ug)</t>
+          <t>Percent of catch = mature</t>
         </is>
       </c>
       <c r="C56">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D56">
-        <v>1117.877447111412</v>
+        <v>60.24767378215654</v>
       </c>
       <c r="E56">
-        <v>881.2847071199818</v>
+        <v>27.39742461182683</v>
       </c>
       <c r="F56">
-        <v>104.5892526056736</v>
+        <v>2.543787014236734</v>
       </c>
       <c r="G56">
-        <v>208.5966868891667</v>
+        <v>5.03875250076232</v>
       </c>
     </row>
     <row r="57">
@@ -1887,23 +1887,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Species Richness</t>
+          <t>Planktivorous (%)</t>
         </is>
       </c>
       <c r="C57">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D57">
-        <v>2.619718309859155</v>
+        <v>0.8210180623973724</v>
       </c>
       <c r="E57">
-        <v>1.561740761212112</v>
+        <v>4.710943126390191</v>
       </c>
       <c r="F57">
-        <v>0.1853445290260241</v>
+        <v>0.4374000884939423</v>
       </c>
       <c r="G57">
-        <v>0.3696580071532544</v>
+        <v>0.8664053937683183</v>
       </c>
     </row>
     <row r="58">
@@ -1914,23 +1914,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Trophic Level</t>
+          <t>Protein (g)</t>
         </is>
       </c>
       <c r="C58">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D58">
-        <v>2.288079340545889</v>
+        <v>777.2412597936061</v>
       </c>
       <c r="E58">
-        <v>0.3102880286550747</v>
+        <v>577.6700217241539</v>
       </c>
       <c r="F58">
-        <v>0.03682441411649715</v>
+        <v>53.63531501940583</v>
       </c>
       <c r="G58">
-        <v>0.07344397813317266</v>
+        <v>106.2412364599228</v>
       </c>
     </row>
     <row r="59">
@@ -1941,23 +1941,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Value (KES)</t>
+          <t>Selenium (ug)</t>
         </is>
       </c>
       <c r="C59">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D59">
-        <v>769.1558775632627</v>
+        <v>1127.01862474336</v>
       </c>
       <c r="E59">
-        <v>588.2224022443697</v>
+        <v>872.9615114737982</v>
       </c>
       <c r="F59">
-        <v>69.80915579223449</v>
+        <v>81.05244154433865</v>
       </c>
       <c r="G59">
-        <v>139.2299710534489</v>
+        <v>160.5492874359098</v>
       </c>
     </row>
     <row r="60">
@@ -1968,23 +1968,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VitaminA (ug)</t>
+          <t>Species Richness</t>
         </is>
       </c>
       <c r="C60">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D60">
-        <v>1458.726533716801</v>
+        <v>2.767241379310345</v>
       </c>
       <c r="E60">
-        <v>1297.318498732159</v>
+        <v>1.59541603471887</v>
       </c>
       <c r="F60">
-        <v>153.9633799130912</v>
+        <v>0.1481306600501058</v>
       </c>
       <c r="G60">
-        <v>307.0702787523956</v>
+        <v>0.2934183284959492</v>
       </c>
     </row>
     <row r="61">
@@ -1995,23 +1995,104 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>Trophic Level</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>116</v>
+      </c>
+      <c r="D61">
+        <v>2.292168551699441</v>
+      </c>
+      <c r="E61">
+        <v>0.3100350777173065</v>
+      </c>
+      <c r="F61">
+        <v>0.02878603430173189</v>
+      </c>
+      <c r="G61">
+        <v>0.05701959382334635</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SM + Traps</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Value (KES)</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>116</v>
+      </c>
+      <c r="D62">
+        <v>758.8735372048674</v>
+      </c>
+      <c r="E62">
+        <v>586.4158325120272</v>
+      </c>
+      <c r="F62">
+        <v>54.44734316534915</v>
+      </c>
+      <c r="G62">
+        <v>107.849707934996</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SM + Traps</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VitaminA (ug)</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>116</v>
+      </c>
+      <c r="D63">
+        <v>1456.76809025295</v>
+      </c>
+      <c r="E63">
+        <v>1320.869037900452</v>
+      </c>
+      <c r="F63">
+        <v>122.6396113402607</v>
+      </c>
+      <c r="G63">
+        <v>242.925466980841</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SM + Traps</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Zinc (ug)</t>
         </is>
       </c>
-      <c r="C61">
-        <v>71</v>
-      </c>
-      <c r="D61">
-        <v>71.96579674413367</v>
-      </c>
-      <c r="E61">
-        <v>51.02329362506878</v>
-      </c>
-      <c r="F61">
-        <v>6.055350901487099</v>
-      </c>
-      <c r="G61">
-        <v>12.07701656272298</v>
+      <c r="C64">
+        <v>116</v>
+      </c>
+      <c r="D64">
+        <v>71.82170751034243</v>
+      </c>
+      <c r="E64">
+        <v>50.99718219104844</v>
+      </c>
+      <c r="F64">
+        <v>4.734969496521733</v>
+      </c>
+      <c r="G64">
+        <v>9.379063285607231</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/stats_means.xlsx
+++ b/FishLandings/household groups/stats_means.xlsx
@@ -406,19 +406,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>3.800047691392696</v>
+        <v>3.81986106537417</v>
       </c>
       <c r="E2">
-        <v>2.459014665232131</v>
+        <v>2.586039266456233</v>
       </c>
       <c r="F2">
-        <v>0.3257044490597423</v>
+        <v>0.4140976934050983</v>
       </c>
       <c r="G2">
-        <v>0.6524644146663884</v>
+        <v>0.8382969538186891</v>
       </c>
     </row>
     <row r="3">
@@ -433,19 +433,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0.4657328290716877</v>
+        <v>0.447415760511841</v>
       </c>
       <c r="E3">
-        <v>0.2076688709623418</v>
+        <v>0.2150763429713992</v>
       </c>
       <c r="F3">
-        <v>0.07849145537370272</v>
+        <v>0.1075381714856996</v>
       </c>
       <c r="G3">
-        <v>0.1920616723675296</v>
+        <v>0.3422344565216304</v>
       </c>
     </row>
     <row r="4">
@@ -460,19 +460,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>1731.539141594671</v>
+        <v>1762.94051932889</v>
       </c>
       <c r="E4">
-        <v>1052.573242733655</v>
+        <v>1129.625876877023</v>
       </c>
       <c r="F4">
-        <v>139.4167318181605</v>
+        <v>180.8849061547703</v>
       </c>
       <c r="G4">
-        <v>279.2852740668328</v>
+        <v>366.1823483594814</v>
       </c>
     </row>
     <row r="5">
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>32.54385964912281</v>
+        <v>32.86324786324786</v>
       </c>
       <c r="E5">
-        <v>31.15199753964597</v>
+        <v>32.72235835850176</v>
       </c>
       <c r="F5">
-        <v>4.126182872847172</v>
+        <v>5.239770832095349</v>
       </c>
       <c r="G5">
-        <v>8.265737544300148</v>
+        <v>10.60736149272999</v>
       </c>
     </row>
     <row r="6">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>16.72514619883041</v>
+        <v>15.52991452991453</v>
       </c>
       <c r="E6">
-        <v>8.262586072125117</v>
+        <v>8.081716405008416</v>
       </c>
       <c r="F6">
-        <v>1.094406260556468</v>
+        <v>1.294110327510283</v>
       </c>
       <c r="G6">
-        <v>2.192359184108752</v>
+        <v>2.619789394470025</v>
       </c>
     </row>
     <row r="7">
@@ -541,19 +541,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>1.289340883086268</v>
+        <v>2.166337988024551</v>
       </c>
       <c r="E7">
-        <v>5.894670141424914</v>
+        <v>6.582499674035399</v>
       </c>
       <c r="F7">
-        <v>0.7807681336542477</v>
+        <v>1.054043520225876</v>
       </c>
       <c r="G7">
-        <v>1.564066517315047</v>
+        <v>2.133799550854492</v>
       </c>
     </row>
     <row r="8">
@@ -568,19 +568,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>60.14619883040935</v>
+        <v>60.51282051282051</v>
       </c>
       <c r="E8">
-        <v>33.29950769119017</v>
+        <v>34.77612999276881</v>
       </c>
       <c r="F8">
-        <v>4.410627541131768</v>
+        <v>5.568637492227787</v>
       </c>
       <c r="G8">
-        <v>8.835548686067025</v>
+        <v>11.27311724020732</v>
       </c>
     </row>
     <row r="9">
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>0.8771929824561403</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="E9">
-        <v>4.640928845756897</v>
+        <v>4.003203845127178</v>
       </c>
       <c r="F9">
-        <v>0.6147060423041536</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="G9">
-        <v>1.231404174065503</v>
+        <v>1.297688566610237</v>
       </c>
     </row>
     <row r="10">
@@ -622,19 +622,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>29.20577130347028</v>
+        <v>30.73377161304882</v>
       </c>
       <c r="E10">
-        <v>21.8725510119907</v>
+        <v>23.68359261388765</v>
       </c>
       <c r="F10">
-        <v>2.897090154693745</v>
+        <v>3.792409960733627</v>
       </c>
       <c r="G10">
-        <v>5.803568964055792</v>
+        <v>7.677332591670776</v>
       </c>
     </row>
     <row r="11">
@@ -649,19 +649,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>23.0114098826413</v>
+        <v>24.21550217107311</v>
       </c>
       <c r="E11">
-        <v>6.87121865021674</v>
+        <v>7.378296118301681</v>
       </c>
       <c r="F11">
-        <v>0.9101151434680868</v>
+        <v>1.181472935650889</v>
       </c>
       <c r="G11">
-        <v>1.823179714235345</v>
+        <v>2.391766915751601</v>
       </c>
     </row>
     <row r="12">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>7.541434033948799</v>
+        <v>8.15521326629548</v>
       </c>
       <c r="E12">
-        <v>6.785764536750551</v>
+        <v>7.253684089832208</v>
       </c>
       <c r="F12">
-        <v>0.8987964696350592</v>
+        <v>1.161519041590165</v>
       </c>
       <c r="G12">
-        <v>1.800505685929666</v>
+        <v>2.351372369067755</v>
       </c>
     </row>
     <row r="13">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>6.432748538011696</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="E13">
-        <v>23.09280490847304</v>
+        <v>22.77758577099987</v>
       </c>
       <c r="F13">
-        <v>3.0587167316663</v>
+        <v>3.647332757647231</v>
       </c>
       <c r="G13">
-        <v>6.127345904295214</v>
+        <v>7.383639148426004</v>
       </c>
     </row>
     <row r="14">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -784,19 +784,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>617.9671164807414</v>
+        <v>642.2858618830843</v>
       </c>
       <c r="E16">
-        <v>425.9010656549472</v>
+        <v>458.0006948979085</v>
       </c>
       <c r="F16">
-        <v>56.41197423684612</v>
+        <v>73.33880571544907</v>
       </c>
       <c r="G16">
-        <v>113.0067638218473</v>
+        <v>148.4666502786289</v>
       </c>
     </row>
     <row r="17">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>1053.570594945267</v>
+        <v>1075.61414511012</v>
       </c>
       <c r="E17">
-        <v>706.1776909037322</v>
+        <v>742.217984408955</v>
       </c>
       <c r="F17">
-        <v>93.53552014394704</v>
+        <v>118.8499955643389</v>
       </c>
       <c r="G17">
-        <v>187.3741626109701</v>
+        <v>240.5992374014111</v>
       </c>
     </row>
     <row r="18">
@@ -838,19 +838,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>2.298245614035088</v>
+        <v>2.128205128205128</v>
       </c>
       <c r="E18">
-        <v>1.017084634080274</v>
+        <v>1.004712244205882</v>
       </c>
       <c r="F18">
-        <v>0.1347161507712983</v>
+        <v>0.1608827167700537</v>
       </c>
       <c r="G18">
-        <v>0.269868878711514</v>
+        <v>0.3256900329035991</v>
       </c>
     </row>
     <row r="19">
@@ -865,19 +865,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>2.578334521799004</v>
+        <v>2.561528466097053</v>
       </c>
       <c r="E19">
-        <v>0.5889685197280762</v>
+        <v>0.6080525096128232</v>
       </c>
       <c r="F19">
-        <v>0.07801078616725385</v>
+        <v>0.09736632578085137</v>
       </c>
       <c r="G19">
-        <v>0.1562743833595772</v>
+        <v>0.197107821672307</v>
       </c>
     </row>
     <row r="20">
@@ -892,19 +892,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>669.4710944579944</v>
+        <v>688.5745705607274</v>
       </c>
       <c r="E20">
-        <v>503.124516235147</v>
+        <v>527.8021201861769</v>
       </c>
       <c r="F20">
-        <v>66.64047013861492</v>
+        <v>84.51597907982323</v>
       </c>
       <c r="G20">
-        <v>133.4969033048391</v>
+        <v>171.0936548065002</v>
       </c>
     </row>
     <row r="21">
@@ -919,19 +919,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>1607.040658814421</v>
+        <v>1649.734873685093</v>
       </c>
       <c r="E21">
-        <v>1835.489903579487</v>
+        <v>1777.009504878768</v>
       </c>
       <c r="F21">
-        <v>243.1165768357228</v>
+        <v>284.5492513103291</v>
       </c>
       <c r="G21">
-        <v>487.0210261442273</v>
+        <v>576.0398436981505</v>
       </c>
     </row>
     <row r="22">
@@ -946,19 +946,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>57.92772763590121</v>
+        <v>60.55790735404162</v>
       </c>
       <c r="E22">
-        <v>40.65561775769883</v>
+        <v>44.14036323945763</v>
       </c>
       <c r="F22">
-        <v>5.384968121654028</v>
+        <v>7.068114873820286</v>
       </c>
       <c r="G22">
-        <v>10.78738741099509</v>
+        <v>14.30865050042117</v>
       </c>
     </row>
     <row r="23">
@@ -973,19 +973,19 @@
         </is>
       </c>
       <c r="C23">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D23">
-        <v>2.360726660783913</v>
+        <v>2.53386116790094</v>
       </c>
       <c r="E23">
-        <v>3.020961773437363</v>
+        <v>3.452382831153333</v>
       </c>
       <c r="F23">
-        <v>0.2373491728558775</v>
+        <v>0.320545698673833</v>
       </c>
       <c r="G23">
-        <v>0.4687190671263797</v>
+        <v>0.6349393372015498</v>
       </c>
     </row>
     <row r="24">
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>0.5513129040184291</v>
+        <v>0.5145744069746477</v>
       </c>
       <c r="E24">
-        <v>0.3220843800135546</v>
+        <v>0.3493109811986957</v>
       </c>
       <c r="F24">
-        <v>0.06574519876282345</v>
+        <v>0.08472035715708043</v>
       </c>
       <c r="G24">
-        <v>0.1360043057692277</v>
+        <v>0.1795991340892121</v>
       </c>
     </row>
     <row r="25">
@@ -1027,19 +1027,19 @@
         </is>
       </c>
       <c r="C25">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D25">
-        <v>1122.55365579528</v>
+        <v>1195.00683632559</v>
       </c>
       <c r="E25">
-        <v>1404.840533587115</v>
+        <v>1614.305504251496</v>
       </c>
       <c r="F25">
-        <v>110.3746964205752</v>
+        <v>149.8845032665289</v>
       </c>
       <c r="G25">
-        <v>217.9688436159985</v>
+        <v>296.892354364954</v>
       </c>
     </row>
     <row r="26">
@@ -1054,19 +1054,19 @@
         </is>
       </c>
       <c r="C26">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D26">
-        <v>29.41211052322163</v>
+        <v>29.10098522167488</v>
       </c>
       <c r="E26">
-        <v>28.01143478821311</v>
+        <v>31.10144209662779</v>
       </c>
       <c r="F26">
-        <v>2.200786165501139</v>
+        <v>2.887696403963647</v>
       </c>
       <c r="G26">
-        <v>4.346130327847029</v>
+        <v>5.719970813389834</v>
       </c>
     </row>
     <row r="27">
@@ -1081,19 +1081,19 @@
         </is>
       </c>
       <c r="C27">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D27">
-        <v>10.96296296296296</v>
+        <v>10.43965517241379</v>
       </c>
       <c r="E27">
-        <v>7.497319511797119</v>
+        <v>7.684302229195907</v>
       </c>
       <c r="F27">
-        <v>0.5890450519459954</v>
+        <v>0.7134695505526037</v>
       </c>
       <c r="G27">
-        <v>1.163250934989301</v>
+        <v>1.413245866082614</v>
       </c>
     </row>
     <row r="28">
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="C28">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D28">
-        <v>0.02798263718428259</v>
+        <v>0.4366258174390479</v>
       </c>
       <c r="E28">
-        <v>5.290939105000811</v>
+        <v>5.949938097871621</v>
       </c>
       <c r="F28">
-        <v>0.4156954355545729</v>
+        <v>0.5524378836083976</v>
       </c>
       <c r="G28">
-        <v>0.8209187098374525</v>
+        <v>1.094273125842998</v>
       </c>
     </row>
     <row r="29">
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="C29">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D29">
-        <v>51.46776406035665</v>
+        <v>52.41858237547893</v>
       </c>
       <c r="E29">
-        <v>32.24471678164319</v>
+        <v>35.37845085545433</v>
       </c>
       <c r="F29">
-        <v>2.533384210415508</v>
+        <v>3.284806697891901</v>
       </c>
       <c r="G29">
-        <v>5.002947638244747</v>
+        <v>6.506569878252909</v>
       </c>
     </row>
     <row r="30">
@@ -1162,19 +1162,19 @@
         </is>
       </c>
       <c r="C30">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D30">
-        <v>4.619341563786008</v>
+        <v>5.373563218390805</v>
       </c>
       <c r="E30">
-        <v>15.54538169493885</v>
+        <v>17.32062829646703</v>
       </c>
       <c r="F30">
-        <v>1.221360534736054</v>
+        <v>1.60817996447573</v>
       </c>
       <c r="G30">
-        <v>2.411952666943044</v>
+        <v>3.185495001085743</v>
       </c>
     </row>
     <row r="31">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C31">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D31">
-        <v>19.3487119421728</v>
+        <v>20.73291243254585</v>
       </c>
       <c r="E31">
-        <v>24.70804024692814</v>
+        <v>27.77164798173055</v>
       </c>
       <c r="F31">
-        <v>1.94124697871478</v>
+        <v>2.578532781850747</v>
       </c>
       <c r="G31">
-        <v>3.83359024165465</v>
+        <v>5.107577179273602</v>
       </c>
     </row>
     <row r="32">
@@ -1216,19 +1216,19 @@
         </is>
       </c>
       <c r="C32">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D32">
-        <v>21.03758961446211</v>
+        <v>21.57149253088021</v>
       </c>
       <c r="E32">
-        <v>7.119585526447532</v>
+        <v>7.922046705295242</v>
       </c>
       <c r="F32">
-        <v>0.5593674672209606</v>
+        <v>0.7355435709970998</v>
       </c>
       <c r="G32">
-        <v>1.104643400530654</v>
+        <v>1.456970252241554</v>
       </c>
     </row>
     <row r="33">
@@ -1243,19 +1243,19 @@
         </is>
       </c>
       <c r="C33">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D33">
-        <v>4.627310696432396</v>
+        <v>5.07908320782016</v>
       </c>
       <c r="E33">
-        <v>6.883616807861825</v>
+        <v>7.713824288368586</v>
       </c>
       <c r="F33">
-        <v>0.5408280137698659</v>
+        <v>0.7162106049334805</v>
       </c>
       <c r="G33">
-        <v>1.068031537838776</v>
+        <v>1.418675367270831</v>
       </c>
     </row>
     <row r="34">
@@ -1270,19 +1270,19 @@
         </is>
       </c>
       <c r="C34">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D34">
-        <v>12.14824612972761</v>
+        <v>11.16242474001095</v>
       </c>
       <c r="E34">
-        <v>23.53831059159452</v>
+        <v>23.52615653781688</v>
       </c>
       <c r="F34">
-        <v>1.849344337443513</v>
+        <v>2.184348797148083</v>
       </c>
       <c r="G34">
-        <v>3.652100162018791</v>
+        <v>4.326774569792176</v>
       </c>
     </row>
     <row r="35">
@@ -1324,19 +1324,19 @@
         </is>
       </c>
       <c r="C36">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D36">
-        <v>2.352537722908093</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="E36">
-        <v>8.810372520161076</v>
+        <v>8.187123152075237</v>
       </c>
       <c r="F36">
-        <v>0.692208239309501</v>
+        <v>0.760155301210891</v>
       </c>
       <c r="G36">
-        <v>1.366978432165658</v>
+        <v>1.505721353048647</v>
       </c>
     </row>
     <row r="37">
@@ -1351,19 +1351,19 @@
         </is>
       </c>
       <c r="C37">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D37">
-        <v>435.8458448747114</v>
+        <v>468.8803595131669</v>
       </c>
       <c r="E37">
-        <v>573.9064929898165</v>
+        <v>655.8886307950066</v>
       </c>
       <c r="F37">
-        <v>45.090352551121</v>
+        <v>60.89773055098114</v>
       </c>
       <c r="G37">
-        <v>89.04479307789443</v>
+        <v>120.6266839114974</v>
       </c>
     </row>
     <row r="38">
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="C38">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D38">
-        <v>692.974587156388</v>
+        <v>735.277089864454</v>
       </c>
       <c r="E38">
-        <v>945.9162346117438</v>
+        <v>1090.250733030782</v>
       </c>
       <c r="F38">
-        <v>74.3181982142677</v>
+        <v>101.2272392839649</v>
       </c>
       <c r="G38">
-        <v>146.7641791979488</v>
+        <v>200.5116789388075</v>
       </c>
     </row>
     <row r="39">
@@ -1405,19 +1405,19 @@
         </is>
       </c>
       <c r="C39">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D39">
-        <v>2.635802469135803</v>
+        <v>2.336206896551724</v>
       </c>
       <c r="E39">
-        <v>1.637131914305804</v>
+        <v>1.509068042475749</v>
       </c>
       <c r="F39">
-        <v>0.1286252309225053</v>
+        <v>0.140113450239858</v>
       </c>
       <c r="G39">
-        <v>0.2540101468292052</v>
+        <v>0.277537778845198</v>
       </c>
     </row>
     <row r="40">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C40">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D40">
-        <v>2.588170819192633</v>
+        <v>2.592707400715843</v>
       </c>
       <c r="E40">
-        <v>0.4898581286106674</v>
+        <v>0.5471008028821952</v>
       </c>
       <c r="F40">
-        <v>0.03848688939555053</v>
+        <v>0.05079703430407292</v>
       </c>
       <c r="G40">
-        <v>0.0760042206046891</v>
+        <v>0.1006191486152216</v>
       </c>
     </row>
     <row r="41">
@@ -1459,19 +1459,19 @@
         </is>
       </c>
       <c r="C41">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D41">
-        <v>372.3881334229517</v>
+        <v>410.0351026777212</v>
       </c>
       <c r="E41">
-        <v>546.7326082060796</v>
+        <v>624.6390854871045</v>
       </c>
       <c r="F41">
-        <v>42.95537052870297</v>
+        <v>57.99628310906614</v>
       </c>
       <c r="G41">
-        <v>84.8286133042787</v>
+        <v>114.8794749384355</v>
       </c>
     </row>
     <row r="42">
@@ -1486,19 +1486,19 @@
         </is>
       </c>
       <c r="C42">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D42">
-        <v>994.7774092762271</v>
+        <v>1017.715482116955</v>
       </c>
       <c r="E42">
-        <v>1360.49204084632</v>
+        <v>1474.818603196777</v>
       </c>
       <c r="F42">
-        <v>106.8903497591954</v>
+        <v>136.9334696352164</v>
       </c>
       <c r="G42">
-        <v>211.0879276346374</v>
+        <v>271.2388492829598</v>
       </c>
     </row>
     <row r="43">
@@ -1513,19 +1513,19 @@
         </is>
       </c>
       <c r="C43">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D43">
-        <v>37.68253965144423</v>
+        <v>39.91404339297677</v>
       </c>
       <c r="E43">
-        <v>44.14548041473012</v>
+        <v>50.51568515966026</v>
       </c>
       <c r="F43">
-        <v>3.468396506665955</v>
+        <v>4.690263619484296</v>
       </c>
       <c r="G43">
-        <v>6.849417486767546</v>
+        <v>9.290509547239811</v>
       </c>
     </row>
     <row r="44">
@@ -1540,19 +1540,19 @@
         </is>
       </c>
       <c r="C44">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D44">
-        <v>4.243524825923762</v>
+        <v>4.26440902099942</v>
       </c>
       <c r="E44">
-        <v>3.139931593033626</v>
+        <v>3.157886917969404</v>
       </c>
       <c r="F44">
-        <v>0.2915353295105942</v>
+        <v>0.3747722272896406</v>
       </c>
       <c r="G44">
-        <v>0.5774753791927982</v>
+        <v>0.7474596385676053</v>
       </c>
     </row>
     <row r="45">
@@ -1567,19 +1567,19 @@
         </is>
       </c>
       <c r="C45">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D45">
-        <v>1.411335399276466</v>
+        <v>1.438602542011752</v>
       </c>
       <c r="E45">
-        <v>0.7020741122699943</v>
+        <v>0.707232881862319</v>
       </c>
       <c r="F45">
-        <v>0.09554018537105313</v>
+        <v>0.1313298491673543</v>
       </c>
       <c r="G45">
-        <v>0.1916293441999166</v>
+        <v>0.2690170009653008</v>
       </c>
     </row>
     <row r="46">
@@ -1594,19 +1594,19 @@
         </is>
       </c>
       <c r="C46">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D46">
-        <v>1813.700724092395</v>
+        <v>1812.428254674726</v>
       </c>
       <c r="E46">
-        <v>1324.904889915155</v>
+        <v>1319.891386286242</v>
       </c>
       <c r="F46">
-        <v>123.0143307926122</v>
+        <v>156.642288805257</v>
       </c>
       <c r="G46">
-        <v>243.6677140978572</v>
+        <v>312.4131940659847</v>
       </c>
     </row>
     <row r="47">
@@ -1621,19 +1621,19 @@
         </is>
       </c>
       <c r="C47">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D47">
-        <v>15.32614416235106</v>
+        <v>15.4626046879568</v>
       </c>
       <c r="E47">
-        <v>18.0869789173944</v>
+        <v>18.18468749248531</v>
       </c>
       <c r="F47">
-        <v>1.67933383333338</v>
+        <v>2.158125357606874</v>
       </c>
       <c r="G47">
-        <v>3.326437121097695</v>
+        <v>4.304245305065613</v>
       </c>
     </row>
     <row r="48">
@@ -1648,19 +1648,19 @@
         </is>
       </c>
       <c r="C48">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D48">
-        <v>16.63793103448276</v>
+        <v>15.47183098591549</v>
       </c>
       <c r="E48">
-        <v>10.67293805363133</v>
+        <v>10.2946659757361</v>
       </c>
       <c r="F48">
-        <v>0.9909574206058974</v>
+        <v>1.221752075723593</v>
       </c>
       <c r="G48">
-        <v>1.96289593164904</v>
+        <v>2.436707681206614</v>
       </c>
     </row>
     <row r="49">
@@ -1675,19 +1675,19 @@
         </is>
       </c>
       <c r="C49">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>2.608710504601353</v>
+        <v>3.272684639357442</v>
       </c>
       <c r="E49">
-        <v>3.756628290012913</v>
+        <v>4.262454029584707</v>
       </c>
       <c r="F49">
-        <v>0.348794180359714</v>
+        <v>0.505860226120561</v>
       </c>
       <c r="G49">
-        <v>0.6908941427496786</v>
+        <v>1.008906408343811</v>
       </c>
     </row>
     <row r="50">
@@ -1702,19 +1702,19 @@
         </is>
       </c>
       <c r="C50">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D50">
-        <v>72.05633447012758</v>
+        <v>72.67915183408142</v>
       </c>
       <c r="E50">
-        <v>23.96620371293248</v>
+        <v>24.07693339319469</v>
       </c>
       <c r="F50">
-        <v>2.225206151646557</v>
+        <v>2.857406293659856</v>
       </c>
       <c r="G50">
-        <v>4.407705125692309</v>
+        <v>5.698917155483772</v>
       </c>
     </row>
     <row r="51">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1756,19 +1756,19 @@
         </is>
       </c>
       <c r="C52">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D52">
-        <v>37.00563242409018</v>
+        <v>37.16285098036012</v>
       </c>
       <c r="E52">
-        <v>26.59535783285494</v>
+        <v>26.66069555970455</v>
       </c>
       <c r="F52">
-        <v>2.469316983355852</v>
+        <v>3.164042448494766</v>
       </c>
       <c r="G52">
-        <v>4.891241702007228</v>
+        <v>6.310483682497334</v>
       </c>
     </row>
     <row r="53">
@@ -1783,19 +1783,19 @@
         </is>
       </c>
       <c r="C53">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D53">
-        <v>26.17138569926788</v>
+        <v>27.03648127617942</v>
       </c>
       <c r="E53">
-        <v>4.110773854854039</v>
+        <v>4.553386938601863</v>
       </c>
       <c r="F53">
-        <v>0.381675770573252</v>
+        <v>0.5403876101392152</v>
       </c>
       <c r="G53">
-        <v>0.7560262446081432</v>
+        <v>1.07776910440299</v>
       </c>
     </row>
     <row r="54">
@@ -1810,19 +1810,19 @@
         </is>
       </c>
       <c r="C54">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D54">
-        <v>9.857621639656053</v>
+        <v>10.01901791274749</v>
       </c>
       <c r="E54">
-        <v>7.731944683821003</v>
+        <v>7.745578461584078</v>
       </c>
       <c r="F54">
-        <v>0.7178930414141997</v>
+        <v>0.9192310450309347</v>
       </c>
       <c r="G54">
-        <v>1.422007950139268</v>
+        <v>1.833348510501907</v>
       </c>
     </row>
     <row r="55">
@@ -1837,19 +1837,19 @@
         </is>
       </c>
       <c r="C55">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D55">
-        <v>11.79650330512399</v>
+        <v>10.71806909835079</v>
       </c>
       <c r="E55">
-        <v>18.21616994290571</v>
+        <v>17.47747763799126</v>
       </c>
       <c r="F55">
-        <v>1.691328918919262</v>
+        <v>2.074194989226126</v>
       </c>
       <c r="G55">
-        <v>3.350197077082397</v>
+        <v>4.136851463562421</v>
       </c>
     </row>
     <row r="56">
@@ -1864,19 +1864,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>116</v>
-      </c>
-      <c r="D56">
-        <v>60.24767378215654</v>
-      </c>
-      <c r="E56">
-        <v>27.39742461182683</v>
-      </c>
-      <c r="F56">
-        <v>2.543787014236734</v>
-      </c>
-      <c r="G56">
-        <v>5.03875250076232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1891,19 +1879,19 @@
         </is>
       </c>
       <c r="C57">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D57">
-        <v>0.8210180623973724</v>
+        <v>1.140174379610999</v>
       </c>
       <c r="E57">
-        <v>4.710943126390191</v>
+        <v>5.774332396965119</v>
       </c>
       <c r="F57">
-        <v>0.4374000884939423</v>
+        <v>0.6852871777032751</v>
       </c>
       <c r="G57">
-        <v>0.8664053937683183</v>
+        <v>1.366762179432347</v>
       </c>
     </row>
     <row r="58">
@@ -1918,19 +1906,19 @@
         </is>
       </c>
       <c r="C58">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D58">
-        <v>777.2412597936061</v>
+        <v>781.0129051957277</v>
       </c>
       <c r="E58">
-        <v>577.6700217241539</v>
+        <v>581.1968136737165</v>
       </c>
       <c r="F58">
-        <v>53.63531501940583</v>
+        <v>68.97537182686773</v>
       </c>
       <c r="G58">
-        <v>106.2412364599228</v>
+        <v>137.5670413697217</v>
       </c>
     </row>
     <row r="59">
@@ -1945,19 +1933,19 @@
         </is>
       </c>
       <c r="C59">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D59">
-        <v>1127.01862474336</v>
+        <v>1117.877447111412</v>
       </c>
       <c r="E59">
-        <v>872.9615114737982</v>
+        <v>881.2847071199818</v>
       </c>
       <c r="F59">
-        <v>81.05244154433865</v>
+        <v>104.5892526056736</v>
       </c>
       <c r="G59">
-        <v>160.5492874359098</v>
+        <v>208.5966868891667</v>
       </c>
     </row>
     <row r="60">
@@ -1972,19 +1960,19 @@
         </is>
       </c>
       <c r="C60">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D60">
-        <v>2.767241379310345</v>
+        <v>2.619718309859155</v>
       </c>
       <c r="E60">
-        <v>1.59541603471887</v>
+        <v>1.561740761212112</v>
       </c>
       <c r="F60">
-        <v>0.1481306600501058</v>
+        <v>0.1853445290260241</v>
       </c>
       <c r="G60">
-        <v>0.2934183284959492</v>
+        <v>0.3696580071532544</v>
       </c>
     </row>
     <row r="61">
@@ -1999,19 +1987,19 @@
         </is>
       </c>
       <c r="C61">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D61">
-        <v>2.292168551699441</v>
+        <v>2.288079340545889</v>
       </c>
       <c r="E61">
-        <v>0.3100350777173065</v>
+        <v>0.3102880286550747</v>
       </c>
       <c r="F61">
-        <v>0.02878603430173189</v>
+        <v>0.03682441411649715</v>
       </c>
       <c r="G61">
-        <v>0.05701959382334635</v>
+        <v>0.07344397813317266</v>
       </c>
     </row>
     <row r="62">
@@ -2026,19 +2014,19 @@
         </is>
       </c>
       <c r="C62">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D62">
-        <v>758.8735372048674</v>
+        <v>769.1558775632627</v>
       </c>
       <c r="E62">
-        <v>586.4158325120272</v>
+        <v>588.2224022443697</v>
       </c>
       <c r="F62">
-        <v>54.44734316534915</v>
+        <v>69.80915579223449</v>
       </c>
       <c r="G62">
-        <v>107.849707934996</v>
+        <v>139.2299710534489</v>
       </c>
     </row>
     <row r="63">
@@ -2053,19 +2041,19 @@
         </is>
       </c>
       <c r="C63">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D63">
-        <v>1456.76809025295</v>
+        <v>1458.726533716801</v>
       </c>
       <c r="E63">
-        <v>1320.869037900452</v>
+        <v>1297.318498732159</v>
       </c>
       <c r="F63">
-        <v>122.6396113402607</v>
+        <v>153.9633799130912</v>
       </c>
       <c r="G63">
-        <v>242.925466980841</v>
+        <v>307.0702787523956</v>
       </c>
     </row>
     <row r="64">
@@ -2080,19 +2068,19 @@
         </is>
       </c>
       <c r="C64">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D64">
-        <v>71.82170751034243</v>
+        <v>71.96579674413367</v>
       </c>
       <c r="E64">
-        <v>50.99718219104844</v>
+        <v>51.02329362506878</v>
       </c>
       <c r="F64">
-        <v>4.734969496521733</v>
+        <v>6.055350901487099</v>
       </c>
       <c r="G64">
-        <v>9.379063285607231</v>
+        <v>12.07701656272298</v>
       </c>
     </row>
   </sheetData>
